--- a/resources/btc-atr.xlsx
+++ b/resources/btc-atr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A702358-8EEC-4C9A-81ED-83E61E4A65D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795CC73-1EA9-4B91-85B3-CAEA5AAD6361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-8565" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -370,10 +370,13 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -389,8 +392,8 @@
         <v>13319</v>
       </c>
       <c r="E1">
-        <f>B1-C1</f>
-        <v>56.799999999999272</v>
+        <f>ROUND(B1-C1, 6)</f>
+        <v>56.8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -407,7 +410,7 @@
         <v>13319</v>
       </c>
       <c r="E2">
-        <f>MAX(B2-C2,ABS(B2-D1),ABS(D1-B2))</f>
+        <f>MAX(B2-C2, ABS(B2-D1), D1-C2)</f>
         <v>0</v>
       </c>
     </row>
@@ -425,7 +428,7 @@
         <v>13346.2</v>
       </c>
       <c r="E3">
-        <f>MAX(B3-C3,ABS(B3-D2),ABS(D2-B3))</f>
+        <f t="shared" ref="E3:E66" si="0">MAX(B3-C3, ABS(B3-D2), D2-C3)</f>
         <v>50.299999999999272</v>
       </c>
     </row>
@@ -443,7 +446,7 @@
         <v>13346.3</v>
       </c>
       <c r="E4">
-        <f>MAX(B4-C4,ABS(B4-D3),ABS(D3-B4))</f>
+        <f t="shared" si="0"/>
         <v>9.9999999998544808E-2</v>
       </c>
     </row>
@@ -461,7 +464,7 @@
         <v>13346.3</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E3:E66" si="0">MAX(B5-C5,ABS(B5-D4),ABS(D4-B5))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -628,7 +631,7 @@
       </c>
       <c r="F14">
         <f>AVERAGE(E1:E14)</f>
-        <v>35.821428571428179</v>
+        <v>35.821428571428235</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,7 +653,7 @@
       </c>
       <c r="F15">
         <f>((F14 * 13) + E15) /14</f>
-        <v>34.855612244897543</v>
+        <v>34.855612244897593</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +675,7 @@
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F79" si="1">((F15 * 13) + E16) /14</f>
-        <v>34.001639941690549</v>
+        <v>34.001639941690591</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,7 +697,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>31.572951374426939</v>
+        <v>31.572951374426975</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,7 +719,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>31.182026276253612</v>
+        <v>31.182026276253644</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,11 +737,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>38.200000000000728</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>31.669024399378355</v>
+        <v>31.683310113664152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,7 +763,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>29.406951227994188</v>
+        <v>29.420216534116715</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,7 +785,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>27.306454711708888</v>
+        <v>27.318772495965522</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,7 +807,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>29.220279375158277</v>
+        <v>29.231717317682296</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,7 +829,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>35.225973705504067</v>
+        <v>35.236594652133512</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,7 +851,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>34.90983272653957</v>
+        <v>34.919695034124054</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,11 +869,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>35.130558960358172</v>
+        <v>35.246859674543764</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,7 +895,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>34.364090463189704</v>
+        <v>34.472083983504895</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,7 +917,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>34.230941144390435</v>
+        <v>34.331220841825974</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,7 +939,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>33.507302491219711</v>
+        <v>33.600419353124146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,7 +961,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>35.028209456132537</v>
+        <v>35.114675113615228</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>35.319051637837383</v>
+        <v>35.399341176928452</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,7 +1005,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>35.674833663706217</v>
+        <v>35.749388235719358</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,7 +1027,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>37.462345544869983</v>
+        <v>37.531574790310756</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,7 +1049,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>41.472178005950596</v>
+        <v>41.53646230528846</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1071,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>39.14559386266852</v>
+        <v>39.205286426339391</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,7 +1093,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>38.378051443906593</v>
+        <v>38.433480253029536</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,7 +1115,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>37.958190626484694</v>
+        <v>38.009660234956002</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,7 +1137,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>37.039748438878668</v>
+        <v>37.087541646744889</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,7 +1159,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>35.401194978958792</v>
+        <v>35.445574386263139</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,7 +1181,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>32.872538194747449</v>
+        <v>32.9137476443872</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,7 +1203,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>31.310214037979772</v>
+        <v>31.348479955502398</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,7 +1225,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>30.945198749552567</v>
+        <v>30.980731387252149</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,7 +1247,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>31.520541696013101</v>
+        <v>31.553536288162711</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1269,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>32.061931574869334</v>
+        <v>32.09256941043683</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,11 +1287,11 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>73.699999999998909</v>
+        <v>74</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>35.036079319521448</v>
+        <v>35.085957309691345</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,7 +1313,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>35.462073653841344</v>
+        <v>35.508388930427678</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,7 +1335,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>33.743354107138366</v>
+        <v>33.786361149682818</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,7 +1357,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>33.383114528056971</v>
+        <v>33.42304963899111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,7 +1379,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>34.27003491891012</v>
+        <v>34.307117521920397</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1398,7 +1401,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>34.315032424702231</v>
+        <v>34.349466270354625</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,7 +1423,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>34.213958680080616</v>
+        <v>34.245932965329267</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,7 +1445,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>32.170104488646309</v>
+        <v>32.199794896377206</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,7 +1467,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>34.950811310885889</v>
+        <v>34.978380975207429</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,7 +1489,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>33.882896217251179</v>
+        <v>33.908496619835468</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,7 +1511,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>33.941260773161858</v>
+        <v>33.965032575561558</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1530,7 +1533,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>33.781170717936064</v>
+        <v>33.803244534450066</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1555,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>32.046801380940629</v>
+        <v>32.067298496275058</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,7 +1577,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>31.386315568016379</v>
+        <v>31.405348603684057</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,7 +1599,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>30.315864456015184</v>
+        <v>30.33353798913517</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,7 +1621,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>32.793302709156954</v>
+        <v>32.809713847054084</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,7 +1643,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>35.550923944217146</v>
+        <v>35.566162857978767</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,7 +1665,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>36.561572233915975</v>
+        <v>36.575722653837481</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,7 +1687,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>39.471459931493357</v>
+        <v>39.484599607134747</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1709,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>39.623498507815285</v>
+        <v>39.63569963519658</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,7 +1731,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>40.128962900114246</v>
+        <v>40.140292518396883</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,7 +1753,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>41.541179835820344</v>
+        <v>41.551700195654227</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,7 +1775,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>41.423952704690294</v>
+        <v>41.433721610250323</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1789,12 +1792,12 @@
         <v>13668.4</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">MAX(B67-C67,ABS(B67-D66),ABS(D66-B67))</f>
+        <f t="shared" ref="E67:E130" si="2">MAX(B67-C67, ABS(B67-D66), D66-C67)</f>
         <v>14.199999999998909</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>39.479384654355194</v>
+        <v>39.488455780946651</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,7 +1819,7 @@
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>37.188000036186942</v>
+        <v>37.196423225164722</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,7 +1841,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
-        <v>37.73885717645927</v>
+        <v>37.7466787090815</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
-        <v>36.600367378140831</v>
+        <v>36.607630229861471</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1885,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
-        <v>34.393198279702254</v>
+        <v>34.399942356299988</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,7 +1907,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
-        <v>34.886541259723472</v>
+        <v>34.892803616564223</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1929,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
-        <v>32.394645455457507</v>
+        <v>32.400460501095345</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,7 +1951,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
-        <v>34.680742208639089</v>
+        <v>34.686141893874222</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1970,7 +1973,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
-        <v>32.267832050879129</v>
+        <v>32.272846044311748</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,7 +1995,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>31.241558332959166</v>
+        <v>31.24621418400374</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,7 +2017,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>30.724304166319225</v>
+        <v>30.728627456574902</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,7 +2039,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>30.958282440153567</v>
+        <v>30.962296923962409</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2058,7 +2061,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>30.468405122999766</v>
+        <v>30.472132857965118</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,7 +2083,7 @@
       </c>
       <c r="F80">
         <f t="shared" ref="F80:F143" si="3">((F79 * 13) + E80) /14</f>
-        <v>30.563519042785448</v>
+        <v>30.566980510967557</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2102,7 +2105,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="3"/>
-        <v>30.580410539729293</v>
+        <v>30.583624760184108</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,7 +2127,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="3"/>
-        <v>29.588952644034396</v>
+        <v>29.591937277313864</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,7 +2149,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="3"/>
-        <v>29.904027455174798</v>
+        <v>29.906798900362872</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,7 +2171,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="3"/>
-        <v>27.768025494090885</v>
+        <v>27.770598978908385</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,7 +2193,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="3"/>
-        <v>27.063166530227225</v>
+        <v>27.065556194700616</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,7 +2215,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="3"/>
-        <v>27.544368920925226</v>
+        <v>27.546587895079089</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,7 +2237,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="3"/>
-        <v>26.726913998002022</v>
+        <v>26.728974474002037</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,7 +2259,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="3"/>
-        <v>25.06784871243045</v>
+        <v>25.069762011573321</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,7 +2281,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="3"/>
-        <v>23.748716661542584</v>
+        <v>23.750493296460967</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,7 +2303,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="3"/>
-        <v>23.923808328575308</v>
+        <v>23.925458060999521</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,7 +2325,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="3"/>
-        <v>22.90067916224853</v>
+        <v>22.90221105664244</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,7 +2347,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="3"/>
-        <v>21.786344936373712</v>
+        <v>21.787767409739484</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,7 +2369,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="3"/>
-        <v>22.101606012347073</v>
+        <v>22.102926880472431</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,11 +2387,11 @@
       </c>
       <c r="E94">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>18.100000000000364</v>
       </c>
       <c r="F94">
         <f t="shared" si="3"/>
-        <v>21.415777011465138</v>
+        <v>21.817003531867282</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2410,7 +2413,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="3"/>
-        <v>22.428935796360513</v>
+        <v>22.801503279591071</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,7 +2435,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="3"/>
-        <v>22.048297525191931</v>
+        <v>22.39425304533459</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,7 +2457,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="3"/>
-        <v>21.844847701963857</v>
+        <v>22.1660921135249</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,7 +2479,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="3"/>
-        <v>26.020215723252232</v>
+        <v>26.318514105416057</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,7 +2501,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="3"/>
-        <v>27.168771743019956</v>
+        <v>27.445763097886363</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,7 +2523,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="3"/>
-        <v>26.228145189947103</v>
+        <v>26.485351448037338</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2542,7 +2545,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="3"/>
-        <v>26.076134819236621</v>
+        <v>26.314969201748983</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,7 +2567,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="3"/>
-        <v>26.334982332148343</v>
+        <v>26.556757115909821</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,7 +2589,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="3"/>
-        <v>25.346769308423461</v>
+        <v>25.552703036201979</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,7 +2611,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="3"/>
-        <v>25.514857214964564</v>
+        <v>25.706081390758904</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2630,7 +2633,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="3"/>
-        <v>24.620938842467094</v>
+        <v>24.79850414856184</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,7 +2655,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="3"/>
-        <v>25.212300353719421</v>
+        <v>25.377182423664539</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2674,7 +2677,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="3"/>
-        <v>26.597136042739489</v>
+        <v>26.750240821974241</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,7 +2699,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="3"/>
-        <v>28.818769182543864</v>
+        <v>28.960937906118993</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2718,7 +2721,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="3"/>
-        <v>29.024571383790654</v>
+        <v>29.156585198538984</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,7 +2743,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="3"/>
-        <v>29.872816284948566</v>
+        <v>29.99540054150059</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,7 +2765,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="3"/>
-        <v>30.339043693166627</v>
+        <v>30.45287193139351</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,7 +2787,7 @@
       </c>
       <c r="F112">
         <f t="shared" si="3"/>
-        <v>30.736254857940413</v>
+        <v>30.841952507722517</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,7 +2809,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="3"/>
-        <v>32.676522368087632</v>
+        <v>32.774670185742444</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,7 +2831,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="3"/>
-        <v>31.949627913224226</v>
+        <v>32.040765172475126</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2850,7 +2853,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="3"/>
-        <v>30.903225919422447</v>
+        <v>30.987853374441137</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,7 +2875,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="3"/>
-        <v>29.152995496606533</v>
+        <v>29.231578133409602</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2890,11 +2893,11 @@
       </c>
       <c r="E117">
         <f t="shared" si="2"/>
-        <v>60.799999999999272</v>
+        <v>60.899999999999636</v>
       </c>
       <c r="F117">
         <f t="shared" si="3"/>
-        <v>31.413495818277443</v>
+        <v>31.493608266737461</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,7 +2919,7 @@
       </c>
       <c r="F118">
         <f t="shared" si="3"/>
-        <v>32.783960402686226</v>
+        <v>32.858350533399097</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
       </c>
       <c r="F119">
         <f t="shared" si="3"/>
-        <v>32.477963231065779</v>
+        <v>32.547039781013446</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2960,7 +2963,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="3"/>
-        <v>32.372394428846796</v>
+        <v>32.436536939512486</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,7 +2985,7 @@
       </c>
       <c r="F121">
         <f t="shared" si="3"/>
-        <v>32.410080541071999</v>
+        <v>32.469641443832998</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,7 +3007,7 @@
       </c>
       <c r="F122">
         <f t="shared" si="3"/>
-        <v>32.352217645281037</v>
+        <v>32.407524197844822</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,7 +3029,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="3"/>
-        <v>30.748487813475354</v>
+        <v>30.799843897998869</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3048,7 +3051,7 @@
       </c>
       <c r="F124">
         <f t="shared" si="3"/>
-        <v>30.323595826798488</v>
+        <v>30.371283619570328</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,7 +3073,7 @@
       </c>
       <c r="F125">
         <f t="shared" si="3"/>
-        <v>30.986196124884337</v>
+        <v>31.030477646743901</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3092,7 +3095,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="3"/>
-        <v>28.951467830249744</v>
+        <v>28.992586386262193</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,7 +3117,7 @@
       </c>
       <c r="F127">
         <f t="shared" si="3"/>
-        <v>29.269220128089152</v>
+        <v>29.307401644386427</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3136,7 +3139,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="3"/>
-        <v>28.264275833225692</v>
+        <v>28.299730098358879</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,11 +3157,11 @@
       </c>
       <c r="E129">
         <f t="shared" si="2"/>
-        <v>9.2999999999992724</v>
+        <v>9.6999999999989086</v>
       </c>
       <c r="F129">
         <f t="shared" si="3"/>
-        <v>26.909684702280948</v>
+        <v>26.971177948476022</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,7 +3183,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="3"/>
-        <v>28.20185008068945</v>
+        <v>28.258950952156308</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,12 +3200,12 @@
         <v>13706.6</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="4">MAX(B131-C131,ABS(B131-D130),ABS(D130-B131))</f>
+        <f t="shared" ref="E131:E194" si="4">MAX(B131-C131, ABS(B131-D130), D130-C131)</f>
         <v>0</v>
       </c>
       <c r="F131">
         <f t="shared" si="3"/>
-        <v>26.187432217783059</v>
+        <v>26.240454455573715</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,7 +3227,7 @@
       </c>
       <c r="F132">
         <f t="shared" si="3"/>
-        <v>24.995472773655699</v>
+        <v>25.044707708747019</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,7 +3249,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="3"/>
-        <v>26.317224718394577</v>
+        <v>26.362942872407949</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3271,7 @@
       </c>
       <c r="F134">
         <f t="shared" si="3"/>
-        <v>28.008851524223534</v>
+        <v>28.051304095807382</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,7 +3293,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="3"/>
-        <v>28.565362129636089</v>
+        <v>28.60478237467823</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,7 +3315,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="3"/>
-        <v>27.889264834662107</v>
+        <v>27.925869347915526</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3334,7 +3337,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="3"/>
-        <v>25.918603060757619</v>
+        <v>25.952592965921507</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3356,7 +3359,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="3"/>
-        <v>27.360131413560541</v>
+        <v>27.39169346835558</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,7 +3381,7 @@
       </c>
       <c r="F139">
         <f t="shared" si="3"/>
-        <v>27.391550598306164</v>
+        <v>27.420858220615845</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,7 +3403,7 @@
       </c>
       <c r="F140">
         <f t="shared" si="3"/>
-        <v>25.542154126998582</v>
+        <v>25.569368347714715</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3422,7 +3425,7 @@
       </c>
       <c r="F141">
         <f t="shared" si="3"/>
-        <v>26.210571689355799</v>
+        <v>26.235842037163639</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,7 +3447,7 @@
       </c>
       <c r="F142">
         <f t="shared" si="3"/>
-        <v>28.495530854401864</v>
+        <v>28.51899617736629</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,7 +3469,7 @@
       </c>
       <c r="F143">
         <f t="shared" si="3"/>
-        <v>31.952992936230277</v>
+        <v>31.974782164697242</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,7 +3491,7 @@
       </c>
       <c r="F144">
         <f t="shared" ref="F144:F200" si="5">((F143 * 13) + E144) /14</f>
-        <v>31.427779155070869</v>
+        <v>31.448012010075907</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3510,7 +3513,7 @@
       </c>
       <c r="F145">
         <f t="shared" si="5"/>
-        <v>32.568652072565783</v>
+        <v>32.587439723641886</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,7 +3535,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="5"/>
-        <v>33.963748353096825</v>
+        <v>33.981194029096066</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3550,11 +3553,11 @@
       </c>
       <c r="E147">
         <f t="shared" si="4"/>
-        <v>57.600000000000364</v>
+        <v>60</v>
       </c>
       <c r="F147">
         <f t="shared" si="5"/>
-        <v>35.652052042161365</v>
+        <v>35.839680169874917</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,7 +3579,7 @@
       </c>
       <c r="F148">
         <f t="shared" si="5"/>
-        <v>35.226905467721188</v>
+        <v>35.401131586312346</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3598,7 +3601,7 @@
       </c>
       <c r="F149">
         <f t="shared" si="5"/>
-        <v>35.167840791455362</v>
+        <v>35.329622187290006</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3620,7 +3623,7 @@
       </c>
       <c r="F150">
         <f t="shared" si="5"/>
-        <v>35.412995020637148</v>
+        <v>35.563220602483604</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3642,7 +3645,7 @@
       </c>
       <c r="F151">
         <f t="shared" si="5"/>
-        <v>37.097781090591639</v>
+        <v>37.237276273734778</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,7 +3667,7 @@
       </c>
       <c r="F152">
         <f t="shared" si="5"/>
-        <v>36.355082441263718</v>
+        <v>36.484613682753775</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,7 +3689,7 @@
       </c>
       <c r="F153">
         <f t="shared" si="5"/>
-        <v>33.758290838316313</v>
+        <v>33.878569848271361</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3708,7 +3711,7 @@
       </c>
       <c r="F154">
         <f t="shared" si="5"/>
-        <v>34.289841492722346</v>
+        <v>34.401529144823463</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3726,11 +3729,11 @@
       </c>
       <c r="E155">
         <f t="shared" si="4"/>
-        <v>55.5</v>
+        <v>57.599999999998545</v>
       </c>
       <c r="F155">
         <f t="shared" si="5"/>
-        <v>35.804852814670753</v>
+        <v>36.058562777335972</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="5"/>
-        <v>35.961649042194274</v>
+        <v>36.197236864669115</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3774,7 +3777,7 @@
       </c>
       <c r="F157">
         <f t="shared" si="5"/>
-        <v>35.871531253466166</v>
+        <v>36.090291374335656</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3796,7 +3799,7 @@
       </c>
       <c r="F158">
         <f t="shared" si="5"/>
-        <v>34.173564735361467</v>
+        <v>34.376699133311703</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,7 +3821,7 @@
       </c>
       <c r="F159">
         <f t="shared" si="5"/>
-        <v>33.196881539978506</v>
+        <v>33.385506338075153</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
       </c>
       <c r="F160">
         <f t="shared" si="5"/>
-        <v>34.454247144265835</v>
+        <v>34.629398742498431</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,7 +3865,7 @@
       </c>
       <c r="F161">
         <f t="shared" si="5"/>
-        <v>34.121800919675366</v>
+        <v>34.284441689462774</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,7 +3887,7 @@
       </c>
       <c r="F162">
         <f t="shared" si="5"/>
-        <v>34.484529425412894</v>
+        <v>34.635552997358346</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3906,7 +3909,7 @@
       </c>
       <c r="F163">
         <f t="shared" si="5"/>
-        <v>33.607063037883457</v>
+        <v>33.747299211832804</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,11 +3927,11 @@
       </c>
       <c r="E164">
         <f t="shared" si="4"/>
-        <v>5.3999999999996362</v>
+        <v>7</v>
       </c>
       <c r="F164">
         <f t="shared" si="5"/>
-        <v>31.592272820891758</v>
+        <v>31.836777839559034</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,7 +3953,7 @@
       </c>
       <c r="F165">
         <f t="shared" si="5"/>
-        <v>30.507110476542319</v>
+        <v>30.734150851019077</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,7 +3975,7 @@
       </c>
       <c r="F166">
         <f t="shared" si="5"/>
-        <v>28.863745442503582</v>
+        <v>29.074568647374857</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,7 +3997,7 @@
       </c>
       <c r="F167">
         <f t="shared" si="5"/>
-        <v>28.202049339467511</v>
+        <v>28.397813743990834</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4016,7 +4019,7 @@
       </c>
       <c r="F168">
         <f t="shared" si="5"/>
-        <v>27.523331529505601</v>
+        <v>27.705112762277256</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="F169">
         <f t="shared" si="5"/>
-        <v>25.685950705969436</v>
+        <v>25.854747564971685</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,7 +4063,7 @@
       </c>
       <c r="F170">
         <f t="shared" si="5"/>
-        <v>24.515525655543126</v>
+        <v>24.672265596045214</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,7 +4085,7 @@
       </c>
       <c r="F171">
         <f t="shared" si="5"/>
-        <v>25.014416680147185</v>
+        <v>25.159960910613414</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,7 +4107,7 @@
       </c>
       <c r="F172">
         <f t="shared" si="5"/>
-        <v>24.377672631565272</v>
+        <v>24.512820845569625</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,7 +4129,7 @@
       </c>
       <c r="F173">
         <f t="shared" si="5"/>
-        <v>24.357838872167779</v>
+        <v>24.483333642314676</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,7 +4151,7 @@
       </c>
       <c r="F174">
         <f t="shared" si="5"/>
-        <v>22.617993238441507</v>
+        <v>22.734524096435056</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4170,7 +4173,7 @@
       </c>
       <c r="F175">
         <f t="shared" si="5"/>
-        <v>22.802422292838596</v>
+        <v>22.91062951811832</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +4195,7 @@
       </c>
       <c r="F176">
         <f t="shared" si="5"/>
-        <v>24.309392129064385</v>
+        <v>24.409870266824129</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,7 +4217,7 @@
       </c>
       <c r="F177">
         <f t="shared" si="5"/>
-        <v>24.673006976988329</v>
+        <v>24.766308104908092</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,7 +4239,7 @@
       </c>
       <c r="F178">
         <f t="shared" si="5"/>
-        <v>23.889220764346359</v>
+        <v>23.975857525986136</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4258,7 +4261,7 @@
       </c>
       <c r="F179">
         <f t="shared" si="5"/>
-        <v>23.347133566893124</v>
+        <v>23.427581988415774</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4280,7 +4283,7 @@
       </c>
       <c r="F180">
         <f t="shared" si="5"/>
-        <v>26.422338312115148</v>
+        <v>26.497040417814752</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,11 +4301,11 @@
       </c>
       <c r="E181">
         <f t="shared" si="4"/>
-        <v>27.200000000000728</v>
+        <v>27.700000000000728</v>
       </c>
       <c r="F181">
         <f t="shared" si="5"/>
-        <v>26.477885575535545</v>
+        <v>26.582966102256609</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,7 +4327,7 @@
       </c>
       <c r="F182">
         <f t="shared" si="5"/>
-        <v>25.30089374871158</v>
+        <v>25.398468523523995</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4346,7 +4349,7 @@
       </c>
       <c r="F183">
         <f t="shared" si="5"/>
-        <v>24.657972766660698</v>
+        <v>24.7485779147008</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,7 +4371,7 @@
       </c>
       <c r="F184">
         <f t="shared" si="5"/>
-        <v>24.568117569042052</v>
+        <v>24.652250920793573</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,7 +4393,7 @@
       </c>
       <c r="F185">
         <f t="shared" si="5"/>
-        <v>25.677537742681931</v>
+        <v>25.755661569308341</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,7 +4415,7 @@
       </c>
       <c r="F186">
         <f t="shared" si="5"/>
-        <v>27.107713618204702</v>
+        <v>27.180257171500653</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4434,7 +4437,7 @@
       </c>
       <c r="F187">
         <f t="shared" si="5"/>
-        <v>27.307162645475767</v>
+        <v>27.374524516393439</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,7 +4459,7 @@
       </c>
       <c r="F188">
         <f t="shared" si="5"/>
-        <v>28.492365313656045</v>
+        <v>28.554915622365311</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4478,7 +4481,7 @@
       </c>
       <c r="F189">
         <f t="shared" si="5"/>
-        <v>27.485767791252016</v>
+        <v>27.543850220767762</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,11 +4499,11 @@
       </c>
       <c r="E190">
         <f t="shared" si="4"/>
-        <v>41.300000000001091</v>
+        <v>46.800000000001091</v>
       </c>
       <c r="F190">
         <f t="shared" si="5"/>
-        <v>28.472498663305519</v>
+        <v>28.919289490712998</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,7 +4525,7 @@
       </c>
       <c r="F191">
         <f t="shared" si="5"/>
-        <v>29.388748758783773</v>
+        <v>29.803625955662149</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,7 +4547,7 @@
       </c>
       <c r="F192">
         <f t="shared" si="5"/>
-        <v>31.618123847442099</v>
+        <v>32.003366958829169</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4566,7 +4569,7 @@
       </c>
       <c r="F193">
         <f t="shared" si="5"/>
-        <v>31.602543572624779</v>
+        <v>31.960269318912772</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,7 +4591,7 @@
       </c>
       <c r="F194">
         <f t="shared" si="5"/>
-        <v>30.909504746008697</v>
+        <v>31.241678653276121</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,12 +4608,12 @@
         <v>13731.3</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E200" si="6">MAX(B195-C195,ABS(B195-D194),ABS(D194-B195))</f>
+        <f t="shared" ref="E195:E200" si="6">MAX(B195-C195, ABS(B195-D194), D194-C195)</f>
         <v>30.199999999998909</v>
       </c>
       <c r="F195">
         <f t="shared" si="5"/>
-        <v>30.858825835579427</v>
+        <v>31.167273035184895</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,7 +4635,7 @@
       </c>
       <c r="F196">
         <f t="shared" si="5"/>
-        <v>31.526052561609522</v>
+        <v>31.812467818386029</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4654,7 +4657,7 @@
       </c>
       <c r="F197">
         <f t="shared" si="5"/>
-        <v>29.281334521494582</v>
+        <v>29.547291545644196</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4676,7 +4679,7 @@
       </c>
       <c r="F198">
         <f t="shared" si="5"/>
-        <v>32.568382055673489</v>
+        <v>32.8153421495267</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4698,7 +4701,7 @@
       </c>
       <c r="F199">
         <f t="shared" si="5"/>
-        <v>31.870640480268186</v>
+        <v>32.099960567417597</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,7 +4723,7 @@
       </c>
       <c r="F200">
         <f t="shared" si="5"/>
-        <v>34.265594731677574</v>
+        <v>34.478534812602028</v>
       </c>
     </row>
   </sheetData>

--- a/resources/btc-atr.xlsx
+++ b/resources/btc-atr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795CC73-1EA9-4B91-85B3-CAEA5AAD6361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B1C264-0E1B-4F7D-8261-EB8FBC478EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8565" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28590" yWindow="-8955" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,8 +392,8 @@
         <v>13319</v>
       </c>
       <c r="E1">
-        <f>ROUND(B1-C1, 6)</f>
-        <v>56.8</v>
+        <f>B1-C1</f>
+        <v>56.799999999999272</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
         <v>13319</v>
       </c>
       <c r="E2">
-        <f>MAX(B2-C2, ABS(B2-D1), D1-C2)</f>
+        <f>MAX(B2 - C2, ABS(B2 - D1), ABS(D1 - C2))</f>
         <v>0</v>
       </c>
     </row>
@@ -428,7 +428,7 @@
         <v>13346.2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">MAX(B3-C3, ABS(B3-D2), D2-C3)</f>
+        <f t="shared" ref="E3:E66" si="0">MAX(B3 - C3, ABS(B3 - D2), ABS(D2 - C3))</f>
         <v>50.299999999999272</v>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="F14">
         <f>AVERAGE(E1:E14)</f>
-        <v>35.821428571428235</v>
+        <v>35.821428571428179</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
       </c>
       <c r="F15">
         <f>((F14 * 13) + E15) /14</f>
-        <v>34.855612244897593</v>
+        <v>34.855612244897543</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F79" si="1">((F15 * 13) + E16) /14</f>
-        <v>34.001639941690591</v>
+        <v>34.001639941690549</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>31.572951374426975</v>
+        <v>31.572951374426939</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>31.182026276253644</v>
+        <v>31.182026276253612</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>31.683310113664152</v>
+        <v>31.683310113664124</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>29.420216534116715</v>
+        <v>29.420216534116687</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>27.318772495965522</v>
+        <v>27.318772495965497</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>29.231717317682296</v>
+        <v>29.231717317682271</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>35.236594652133512</v>
+        <v>35.236594652133483</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>34.919695034124054</v>
+        <v>34.919695034124025</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>35.246859674543764</v>
+        <v>35.246859674543735</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>34.472083983504895</v>
+        <v>34.472083983504874</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>34.331220841825974</v>
+        <v>34.331220841825953</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>33.600419353124146</v>
+        <v>33.600419353124124</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>35.114675113615228</v>
+        <v>35.114675113615206</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>35.399341176928452</v>
+        <v>35.399341176928431</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>35.749388235719358</v>
+        <v>35.749388235719337</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>37.531574790310756</v>
+        <v>37.531574790310735</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>41.53646230528846</v>
+        <v>41.536462305288431</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>39.205286426339391</v>
+        <v>39.205286426339356</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>38.433480253029536</v>
+        <v>38.433480253029508</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>38.009660234956002</v>
+        <v>38.009660234955973</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>37.087541646744889</v>
+        <v>37.087541646744853</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>35.445574386263139</v>
+        <v>35.445574386263104</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>32.9137476443872</v>
+        <v>32.913747644387165</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>31.348479955502398</v>
+        <v>31.348479955502366</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>30.980731387252149</v>
+        <v>30.980731387252121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>31.553536288162711</v>
+        <v>31.553536288162686</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>32.09256941043683</v>
+        <v>32.092569410436809</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>35.085957309691345</v>
+        <v>35.085957309691324</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>35.508388930427678</v>
+        <v>35.508388930427657</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>33.786361149682818</v>
+        <v>33.786361149682797</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>33.42304963899111</v>
+        <v>33.423049638991088</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>34.307117521920397</v>
+        <v>34.307117521920375</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>34.349466270354625</v>
+        <v>34.349466270354604</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>34.245932965329267</v>
+        <v>34.245932965329253</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>32.199794896377206</v>
+        <v>32.199794896377192</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>34.978380975207429</v>
+        <v>34.978380975207422</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>13668.4</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">MAX(B67-C67, ABS(B67-D66), D66-C67)</f>
+        <f t="shared" ref="E67:E130" si="2">MAX(B67 - C67, ABS(B67 - D66), ABS(D66 - C67))</f>
         <v>14.199999999998909</v>
       </c>
       <c r="F67">
@@ -3200,7 +3200,7 @@
         <v>13706.6</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="4">MAX(B131-C131, ABS(B131-D130), D130-C131)</f>
+        <f t="shared" ref="E131:E194" si="4">MAX(B131 - C131, ABS(B131 - D130), ABS(D130 - C131))</f>
         <v>0</v>
       </c>
       <c r="F131">
@@ -4608,7 +4608,7 @@
         <v>13731.3</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E200" si="6">MAX(B195-C195, ABS(B195-D194), D194-C195)</f>
+        <f t="shared" ref="E195:E200" si="6">MAX(B195 - C195, ABS(B195 - D194), ABS(D194 - C195))</f>
         <v>30.199999999998909</v>
       </c>
       <c r="F195">

--- a/resources/btc-atr.xlsx
+++ b/resources/btc-atr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B1C264-0E1B-4F7D-8261-EB8FBC478EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1EFC00-A4C2-476F-BED7-A39BF825986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28590" yWindow="-8955" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
         <v>37.531574790310735</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1515671040</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>41.536462305288431</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1515671100</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>39.205286426339356</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1515671160</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>38.433480253029508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1515671220</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>38.009660234955973</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1515671280</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>37.087541646744853</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1515671340</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>35.445574386263104</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1515671400</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>32.913747644387165</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1515671460</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>31.348479955502366</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1515671520</v>
       </c>
@@ -1227,8 +1227,12 @@
         <f t="shared" si="1"/>
         <v>30.980731387252121</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f>MAX(B41-C41,ABS(B41-D40),D40-C41)</f>
+        <v>26.199999999998909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1515671580</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>31.553536288162686</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1515671640</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>32.092569410436809</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1515671700</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>35.085957309691324</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1515671760</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>35.508388930427657</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1515671820</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>33.786361149682797</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1515671880</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>33.423049638991088</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1515671940</v>
       </c>

--- a/resources/btc-atr.xlsx
+++ b/resources/btc-atr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1EFC00-A4C2-476F-BED7-A39BF825986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CFD11-63FE-49B8-87F2-FF9F2FB3665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28590" yWindow="-8955" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +395,9 @@
         <f>B1-C1</f>
         <v>56.799999999999272</v>
       </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -413,6 +416,9 @@
         <f>MAX(B2 - C2, ABS(B2 - D1), ABS(D1 - C2))</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -431,6 +437,9 @@
         <f t="shared" ref="E3:E66" si="0">MAX(B3 - C3, ABS(B3 - D2), ABS(D2 - C3))</f>
         <v>50.299999999999272</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -449,6 +458,9 @@
         <f t="shared" si="0"/>
         <v>9.9999999998544808E-2</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -467,6 +479,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -485,6 +500,9 @@
         <f t="shared" si="0"/>
         <v>73.299999999999272</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -503,6 +521,9 @@
         <f t="shared" si="0"/>
         <v>22.099999999998545</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -521,6 +542,9 @@
         <f t="shared" si="0"/>
         <v>44.799999999999272</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -539,6 +563,9 @@
         <f t="shared" si="0"/>
         <v>81.899999999999636</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -557,6 +584,9 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -575,6 +605,9 @@
         <f t="shared" si="0"/>
         <v>33.799999999999272</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -593,6 +626,9 @@
         <f t="shared" si="0"/>
         <v>53.800000000001091</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -611,6 +647,9 @@
         <f t="shared" si="0"/>
         <v>17.899999999999636</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1030,7 +1069,7 @@
         <v>37.531574790310735</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1515671040</v>
       </c>
@@ -1052,7 +1091,7 @@
         <v>41.536462305288431</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1515671100</v>
       </c>
@@ -1074,7 +1113,7 @@
         <v>39.205286426339356</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1515671160</v>
       </c>
@@ -1096,7 +1135,7 @@
         <v>38.433480253029508</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1515671220</v>
       </c>
@@ -1118,7 +1157,7 @@
         <v>38.009660234955973</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1515671280</v>
       </c>
@@ -1140,7 +1179,7 @@
         <v>37.087541646744853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1515671340</v>
       </c>
@@ -1162,7 +1201,7 @@
         <v>35.445574386263104</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1515671400</v>
       </c>
@@ -1184,7 +1223,7 @@
         <v>32.913747644387165</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1515671460</v>
       </c>
@@ -1206,7 +1245,7 @@
         <v>31.348479955502366</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1515671520</v>
       </c>
@@ -1227,12 +1266,8 @@
         <f t="shared" si="1"/>
         <v>30.980731387252121</v>
       </c>
-      <c r="G41">
-        <f>MAX(B41-C41,ABS(B41-D40),D40-C41)</f>
-        <v>26.199999999998909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1515671580</v>
       </c>
@@ -1254,7 +1289,7 @@
         <v>31.553536288162686</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1515671640</v>
       </c>
@@ -1276,7 +1311,7 @@
         <v>32.092569410436809</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1515671700</v>
       </c>
@@ -1298,7 +1333,7 @@
         <v>35.085957309691324</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1515671760</v>
       </c>
@@ -1320,7 +1355,7 @@
         <v>35.508388930427657</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1515671820</v>
       </c>
@@ -1342,7 +1377,7 @@
         <v>33.786361149682797</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1515671880</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>33.423049638991088</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1515671940</v>
       </c>
